--- a/アサヒ緑健RPA/01管理/10_設定/設定ファイル_サンプル(緑効_9通).xlsx
+++ b/アサヒ緑健RPA/01管理/10_設定/設定ファイル_サンプル(緑効_9通).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.225\share\アサヒ緑健\その他システム\RPA\70_保守\01.SFH\20240213_(IDR0018)ステップ数変更対応\20_ソース\アサヒ緑健RPA\01管理\10_設定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Step_Mail\アサヒ緑健RPA\01管理\10_設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B4D2E5-B39C-4F3A-9C61-15A6C4A8AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9455113-78BA-4FD9-8298-191444DA7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1035" windowWidth="18000" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル(緑効_9通)" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -204,30 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>asahirpa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Asahi003-rpa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-  </si>
-  <si>
-    <t>以外</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>緑効</t>
-    <rPh sb="0" eb="2">
-      <t>リョクコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー設定値</t>
   </si>
   <si>
@@ -235,13 +211,6 @@
   </si>
   <si>
     <t>通販管理(項目)</t>
-  </si>
-  <si>
-    <t>★【新】23年9月～サンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>テンプレート</t>
@@ -255,76 +224,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\アサヒ緑健RPA\01管理\40_異常</t>
-  </si>
-  <si>
     <t>配信スケジュールファイルパス</t>
-  </si>
-  <si>
-    <t>アサヒ緑健 &lt;letter@asahi-ryokuken.co.jp&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新春サンプルステップメールα</t>
-    <rPh sb="0" eb="2">
-      <t>シンシュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hirabaru</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hirabaru@softhousewave.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\サンプル(緑効)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_サンプル(緑効_9通)_yyyyMMdd.txt</t>
-  </si>
-  <si>
-    <t>ステップメール（サンプル(緑効_9通)）α回目_yyyyMMdd.csv</t>
-  </si>
-  <si>
-    <t>【RPA】サンプル(緑効_9通)ステップ正常終了</t>
-  </si>
-  <si>
-    <t>【RPA】サンプル(緑効_9通)ステップ異常終了</t>
-    <rPh sb="20" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\50_配信スケジュール\配信スケジュール_サンプル(緑効_9通).xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\20_連携\サンプル(緑効_9通)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\60_完了\サンプル(緑効_9通)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプル(緑効)</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -713,7 +613,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
     <col min="3" max="3" width="82.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -743,11 +643,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -759,11 +657,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -775,11 +671,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -791,11 +685,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -805,13 +697,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -823,11 +713,9 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -839,11 +727,9 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -855,11 +741,9 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -871,11 +755,9 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -887,11 +769,9 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -903,11 +783,9 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -919,11 +797,9 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -935,11 +811,9 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -951,11 +825,9 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -967,11 +839,9 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -983,11 +853,9 @@
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -999,11 +867,9 @@
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1013,13 +879,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1031,11 +895,9 @@
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1047,11 +909,9 @@
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1061,13 +921,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1079,11 +937,9 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1095,11 +951,9 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1111,11 +965,9 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1127,11 +979,9 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1145,7 +995,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1157,11 +1007,9 @@
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1173,11 +1021,9 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1189,11 +1035,9 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1205,11 +1049,9 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1223,7 +1065,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1237,7 +1079,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1249,11 +1091,9 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1267,7 +1107,7 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1281,7 +1121,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1293,11 +1133,9 @@
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1309,11 +1147,9 @@
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E38" s="1"/>
     </row>
